--- a/data/insomnia_and_sleep_quality_relation.xlsx
+++ b/data/insomnia_and_sleep_quality_relation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87236\Projects\SR_ZJUPH_KnowledgeGraph\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B6B15-FCED-4285-A45D-5EAEC2D036E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94592CCF-7F45-4314-8242-360389FFD0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{A74AF67B-B8DE-324A-8CF4-54C0E0FA910C}"/>
+    <workbookView xWindow="12672" yWindow="1668" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{A74AF67B-B8DE-324A-8CF4-54C0E0FA910C}"/>
   </bookViews>
   <sheets>
     <sheet name="RELATION" sheetId="2" r:id="rId1"/>
+    <sheet name="EN_RELATION" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Relation</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -448,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E22939-B604-E743-97A1-7B1F610CA2E1}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -754,4 +761,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A69D4-AD73-4648-BC87-F647DE9BEF30}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/insomnia_and_sleep_quality_relation.xlsx
+++ b/data/insomnia_and_sleep_quality_relation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3930" yWindow="2085" windowWidth="21600" windowHeight="11775" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RELATION" sheetId="1" state="visible" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +104,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,18 +485,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col width="18.3984375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.5" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.5" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19.09765625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="16.19921875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="19.125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="16.25" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -547,7 +547,7 @@
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
@@ -559,7 +559,7 @@
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
@@ -574,7 +574,7 @@
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
@@ -601,34 +601,34 @@
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" customFormat="1" s="9">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" customFormat="1" s="8">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
@@ -640,7 +640,7 @@
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
@@ -655,7 +655,7 @@
           <t>INTEGRATE</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>Hypothalamus</t>
         </is>
@@ -726,12 +726,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Pituitary</t>
         </is>
@@ -753,12 +753,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
@@ -770,7 +770,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>Adrenal_axis</t>
         </is>
@@ -780,12 +780,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>Respiratory_medicine</t>
         </is>
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>Envirnmental_factor</t>
         </is>
@@ -861,12 +861,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>REASON_C</t>
         </is>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>Drug_or_alcohol_abuse</t>
         </is>
@@ -888,12 +888,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>REASON_C</t>
         </is>
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>Cognitive_behavioral_therapy</t>
         </is>
@@ -915,12 +915,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_C</t>
         </is>
@@ -932,7 +932,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>Sleep_hygiene_education</t>
         </is>
@@ -942,12 +942,12 @@
           <t>NAN</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>PREVENTION</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_C</t>
         </is>
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>Chronic_liver_failure</t>
         </is>
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>Parkinson_s_disease</t>
         </is>
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>Cancer</t>
         </is>
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>Anxiety_disorder</t>
         </is>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>Schizophrenia</t>
         </is>
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>Chronic_obstructive_pulmonary_disease</t>
         </is>
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>Bipolar_disorder</t>
         </is>
@@ -1175,7 +1175,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -1190,7 +1190,7 @@
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_S</t>
         </is>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>Childbearing_age</t>
         </is>
@@ -1217,7 +1217,7 @@
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D27" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_S</t>
         </is>
@@ -1229,7 +1229,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Department_of_integrated_traditional_chinese_and_western_medicine</t>
         </is>
@@ -1244,7 +1244,7 @@
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_S</t>
         </is>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>Integrated_traditional_chinese_and_western_medicine_treatment_clinic</t>
         </is>
@@ -1271,7 +1271,7 @@
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D29" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_S</t>
         </is>
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>Onset_or_maintenance_sleep_disturbance</t>
         </is>
@@ -1298,7 +1298,7 @@
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D30" s="10" t="inlineStr">
         <is>
           <t>SIGNS_S</t>
         </is>
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>Return_to_normal_after_period</t>
         </is>
@@ -1325,7 +1325,7 @@
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="D31" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>Even_sleepless_nights</t>
         </is>
@@ -1352,7 +1352,7 @@
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D32" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>Insomnia_before_or_during_menstruation</t>
         </is>
@@ -1379,7 +1379,7 @@
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr">
+      <c r="A65" s="10" t="inlineStr">
         <is>
           <t>Remove_mental_barriers</t>
         </is>
@@ -2390,7 +2390,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
+      <c r="A71" s="10" t="inlineStr">
         <is>
           <t>Onset_or_maintenance_sleep_disturbance</t>
         </is>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
     </row>
-    <row r="74" customFormat="1" s="7">
+    <row r="74" customFormat="1" s="6">
       <c r="A74" s="5" t="inlineStr">
         <is>
           <t>Poor_sleep_quality</t>
@@ -2551,23 +2551,248 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="C77" s="2" t="n"/>
+    <row r="77" customFormat="1" s="10">
+      <c r="A77" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>EVALUATE</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="C78" s="2" t="n"/>
+      <c r="A78" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>EVALUATE</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>Anxiety</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="C79" s="2" t="n"/>
+      <c r="A79" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D79" s="10" t="inlineStr">
+        <is>
+          <t>Feeling_nervous__anxious__or_anxious</t>
+        </is>
+      </c>
+      <c r="E79" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="C80" s="2" t="n"/>
+      <c r="A80" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D80" s="10" t="inlineStr">
+        <is>
+          <t>Inability_to_stop_or_control_worry</t>
+        </is>
+      </c>
+      <c r="E80" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="C81" s="2" t="n"/>
+      <c r="A81" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D81" s="10" t="inlineStr">
+        <is>
+          <t>Worrying_too_much_about_all_kinds_of_things</t>
+        </is>
+      </c>
+      <c r="E81" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="C82" s="2" t="n"/>
+      <c r="A82" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D82" s="10" t="inlineStr">
+        <is>
+          <t>Hard_to_relax</t>
+        </is>
+      </c>
+      <c r="E82" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>Unable_to_sit_still_due_to_restlessness</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D84" s="10" t="inlineStr">
+        <is>
+          <t>Become_easily_irritable_or_irritable</t>
+        </is>
+      </c>
+      <c r="E84" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="D85" s="10" t="inlineStr">
+        <is>
+          <t>Fear_that_something_terrible_is_about_to_happen</t>
+        </is>
+      </c>
+      <c r="E85" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,17 +2807,17 @@
   </sheetPr>
   <dimension ref="A1:G616"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G116"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
     <col width="14.5" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.5" customWidth="1" style="3" min="2" max="3"/>
     <col width="16" customWidth="1" style="3" min="4" max="4"/>
-    <col width="28.796875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="16.59765625" customWidth="1" style="3" min="6" max="6"/>
+    <col width="28.75" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16.625" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2633,5510 +2858,5816 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>SUB_TYPE</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>SUB_TYPE</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>SUB_TYPE</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="G7" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>REASON_</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>LESION_</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F13" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G13" s="6" t="inlineStr">
+      <c r="G13" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>ICD_10_</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E15" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>INSOMNIA_MAIN</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
         <is>
           <t>MAIN</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_S</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_S</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G17" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="F18" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E19" s="10" t="inlineStr">
         <is>
           <t>SIGNS_S</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_S</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="10" t="inlineStr">
         <is>
           <t>REASON_S</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_S</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G22" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E23" s="6" t="inlineStr">
+      <c r="E23" s="10" t="inlineStr">
         <is>
           <t>LESION_S</t>
         </is>
       </c>
-      <c r="F23" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G23" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D24" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_S</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G24" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D25" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
+      <c r="E25" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_S</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G25" s="6" t="inlineStr">
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G25" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL_INSOMNIA</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="10" t="inlineStr">
         <is>
           <t>ICD_10_S</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G26" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D27" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="E27" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_C</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr">
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G27" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_C</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="F28" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G28" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+      <c r="A29" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D29" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E29" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_C</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G29" s="6" t="inlineStr">
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G29" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D30" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="10" t="inlineStr">
         <is>
           <t>SIGNS_C</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="F30" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G30" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
+      <c r="A31" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="D31" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_C</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G31" s="6" t="inlineStr">
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G31" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D32" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="10" t="inlineStr">
         <is>
           <t>REASON_C</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="F32" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G32" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="C33" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_C</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="inlineStr">
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G33" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
+      <c r="A34" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D34" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr">
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G34" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C35" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="D35" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_C</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr">
+      <c r="F35" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G35" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
+      <c r="A36" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C36" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D36" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="10" t="inlineStr">
         <is>
           <t>ICD_10_C</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G36" s="6" t="inlineStr">
+      <c r="F36" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G36" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>CHRONIC_INSOMNIA</t>
         </is>
       </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C37" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="D37" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E37" s="6" t="inlineStr">
+      <c r="E37" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F37" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G37" s="6" t="inlineStr">
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G37" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
+      <c r="A38" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D38" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_P</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G38" s="6" t="inlineStr">
+      <c r="F38" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G38" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
+      <c r="A39" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E39" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_P</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G39" s="6" t="inlineStr">
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G39" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+      <c r="A40" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C40" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D40" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr">
+      <c r="F40" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G40" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
+      <c r="A41" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B41" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C41" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D41" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E41" s="10" t="inlineStr">
         <is>
           <t>SIGNS_P</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G41" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
+      <c r="A42" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B42" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C42" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D42" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E42" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_P</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
+      <c r="F42" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G42" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
+      <c r="A43" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="B43" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="C43" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="D43" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="10" t="inlineStr">
         <is>
           <t>REASON_P</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr">
+      <c r="F43" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G43" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
+      <c r="A44" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="B44" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
+      <c r="C44" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="D44" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E44" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_P</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="inlineStr">
+      <c r="F44" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G44" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
+      <c r="A45" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="B45" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
+      <c r="C45" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E45" s="10" t="inlineStr">
         <is>
           <t>LESION_P</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G45" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
+      <c r="A46" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B46" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
+      <c r="C46" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="D46" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E46" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_P</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="inlineStr">
+      <c r="F46" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G46" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
+      <c r="A47" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B47" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="C47" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="D47" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_P</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="inlineStr">
+      <c r="F47" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G47" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
+      <c r="A48" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE_INSOMNIA</t>
         </is>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="10" t="inlineStr">
         <is>
           <t>CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
+      <c r="C48" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="D48" s="10" t="inlineStr">
         <is>
           <t>PROPERTY</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E48" s="10" t="inlineStr">
         <is>
           <t>ICD_10_P</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="inlineStr">
+      <c r="F48" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G48" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
+      <c r="A49" s="10" t="inlineStr">
         <is>
           <t>Hypothalamus</t>
         </is>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B49" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D49" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E49" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
+      <c r="F49" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G49" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
+      <c r="A50" s="10" t="inlineStr">
         <is>
           <t>Pituitary</t>
         </is>
       </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="B50" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D50" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="inlineStr">
+      <c r="F50" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G50" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
+      <c r="A51" s="10" t="inlineStr">
         <is>
           <t>Adrenal_axis</t>
         </is>
       </c>
-      <c r="B51" s="6" t="inlineStr">
+      <c r="B51" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="C51" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="inlineStr">
+      <c r="C51" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr">
         <is>
           <t>LESION</t>
         </is>
       </c>
-      <c r="E51" s="6" t="inlineStr">
+      <c r="E51" s="10" t="inlineStr">
         <is>
           <t>LESION_C</t>
         </is>
       </c>
-      <c r="F51" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G51" s="6" t="inlineStr">
+      <c r="F51" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G51" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
+      <c r="A52" s="10" t="inlineStr">
         <is>
           <t>Respiratory_medicine</t>
         </is>
       </c>
-      <c r="B52" s="6" t="inlineStr">
+      <c r="B52" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D52" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_C</t>
         </is>
       </c>
-      <c r="F52" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
+      <c r="F52" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G52" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
+      <c r="A53" s="10" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
       </c>
-      <c r="B53" s="6" t="inlineStr">
+      <c r="B53" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="C53" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D53" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_C</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="inlineStr">
+      <c r="F53" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G53" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>Envirnmental_factor</t>
         </is>
       </c>
-      <c r="B54" s="6" t="inlineStr">
+      <c r="B54" s="10" t="inlineStr">
         <is>
           <t>REASON</t>
         </is>
       </c>
-      <c r="C54" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="C54" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D54" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E54" s="10" t="inlineStr">
         <is>
           <t>REASON_C</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr">
+      <c r="F54" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G54" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
+      <c r="A55" s="10" t="inlineStr">
         <is>
           <t>Drug_or_alcohol_abuse</t>
         </is>
       </c>
-      <c r="B55" s="6" t="inlineStr">
+      <c r="B55" s="10" t="inlineStr">
         <is>
           <t>REASON</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D55" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="10" t="inlineStr">
         <is>
           <t>REASON_C</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="inlineStr">
+      <c r="F55" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G55" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
+      <c r="A56" s="10" t="inlineStr">
         <is>
           <t>Cognitive_behavioral_therapy</t>
         </is>
       </c>
-      <c r="B56" s="6" t="inlineStr">
+      <c r="B56" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="C56" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D56" s="6" t="inlineStr">
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D56" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="E56" s="6" t="inlineStr">
+      <c r="E56" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_C</t>
         </is>
       </c>
-      <c r="F56" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="inlineStr">
+      <c r="F56" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G56" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
+      <c r="A57" s="10" t="inlineStr">
         <is>
           <t>Sleep_hygiene_education</t>
         </is>
       </c>
-      <c r="B57" s="6" t="inlineStr">
+      <c r="B57" s="10" t="inlineStr">
         <is>
           <t>PREVENTION</t>
         </is>
       </c>
-      <c r="C57" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
+      <c r="C57" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
         <is>
           <t>PREVENTION</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
+      <c r="E57" s="10" t="inlineStr">
         <is>
           <t>PREVENTION_C</t>
         </is>
       </c>
-      <c r="F57" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G57" s="6" t="inlineStr">
+      <c r="F57" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G57" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr">
+      <c r="A58" s="10" t="inlineStr">
         <is>
           <t>Chronic_liver_failure</t>
         </is>
       </c>
-      <c r="B58" s="6" t="inlineStr">
+      <c r="B58" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C58" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D58" s="6" t="inlineStr">
+      <c r="C58" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E58" s="6" t="inlineStr">
+      <c r="E58" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="F58" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G58" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+      <c r="A59" s="10" t="inlineStr">
         <is>
           <t>Parkinson_s_disease</t>
         </is>
       </c>
-      <c r="B59" s="6" t="inlineStr">
+      <c r="B59" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C59" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
+      <c r="C59" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D59" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E59" s="6" t="inlineStr">
+      <c r="E59" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G59" s="6" t="inlineStr">
+      <c r="F59" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+      <c r="A60" s="10" t="inlineStr">
         <is>
           <t>Cancer</t>
         </is>
       </c>
-      <c r="B60" s="6" t="inlineStr">
+      <c r="B60" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C60" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="C60" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D60" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E60" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="F60" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G60" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
+      <c r="A61" s="10" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="B61" s="6" t="inlineStr">
+      <c r="B61" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="E61" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G61" s="6" t="inlineStr">
+      <c r="F61" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G61" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
+      <c r="A62" s="10" t="inlineStr">
         <is>
           <t>Anxiety_disorder</t>
         </is>
       </c>
-      <c r="B62" s="6" t="inlineStr">
+      <c r="B62" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D62" s="6" t="inlineStr">
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D62" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E62" s="6" t="inlineStr">
+      <c r="E62" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F62" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G62" s="6" t="inlineStr">
+      <c r="F62" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G62" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
+      <c r="A63" s="10" t="inlineStr">
         <is>
           <t>Schizophrenia</t>
         </is>
       </c>
-      <c r="B63" s="6" t="inlineStr">
+      <c r="B63" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="C63" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E63" s="6" t="inlineStr">
+      <c r="E63" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G63" s="6" t="inlineStr">
+      <c r="F63" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G63" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="inlineStr">
+      <c r="A64" s="10" t="inlineStr">
         <is>
           <t>Chronic_obstructive_pulmonary_disease</t>
         </is>
       </c>
-      <c r="B64" s="6" t="inlineStr">
+      <c r="B64" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C64" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
+      <c r="C64" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E64" s="6" t="inlineStr">
+      <c r="E64" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F64" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G64" s="6" t="inlineStr">
+      <c r="F64" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G64" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr">
+      <c r="A65" s="10" t="inlineStr">
         <is>
           <t>Bipolar_disorder</t>
         </is>
       </c>
-      <c r="B65" s="6" t="inlineStr">
+      <c r="B65" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="C65" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
+      <c r="C65" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E65" s="6" t="inlineStr">
+      <c r="E65" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_C</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G65" s="6" t="inlineStr">
+      <c r="F65" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G65" s="10" t="inlineStr">
         <is>
           <t>CHRONIC</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="inlineStr">
+      <c r="A66" s="10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="B66" s="6" t="inlineStr">
+      <c r="B66" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D66" s="6" t="inlineStr">
+      <c r="C66" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D66" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_S</t>
         </is>
       </c>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr">
+      <c r="F66" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G66" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr">
+      <c r="A67" s="10" t="inlineStr">
         <is>
           <t>Childbearing_age</t>
         </is>
       </c>
-      <c r="B67" s="6" t="inlineStr">
+      <c r="B67" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="C67" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
+      <c r="C67" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D67" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="E67" s="6" t="inlineStr">
+      <c r="E67" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_S</t>
         </is>
       </c>
-      <c r="F67" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G67" s="6" t="inlineStr">
+      <c r="F67" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G67" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr">
+      <c r="A68" s="10" t="inlineStr">
         <is>
           <t>Department_of_integrated_traditional_chinese_and_western_medicine</t>
         </is>
       </c>
-      <c r="B68" s="6" t="inlineStr">
+      <c r="B68" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="inlineStr">
+      <c r="C68" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D68" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E68" s="6" t="inlineStr">
+      <c r="E68" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_S</t>
         </is>
       </c>
-      <c r="F68" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr">
+      <c r="F68" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G68" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
+      <c r="A69" s="10" t="inlineStr">
         <is>
           <t>Integrated_traditional_chinese_and_western_medicine_treatment_clinic</t>
         </is>
       </c>
-      <c r="B69" s="6" t="inlineStr">
+      <c r="B69" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="C69" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D69" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="E69" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_S</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr">
+      <c r="F69" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G69" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
+      <c r="A70" s="10" t="inlineStr">
         <is>
           <t>Onset_or_maintenance_sleep_disturbance</t>
         </is>
       </c>
-      <c r="B70" s="6" t="inlineStr">
+      <c r="B70" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D70" s="6" t="inlineStr">
+      <c r="C70" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D70" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E70" s="6" t="inlineStr">
+      <c r="E70" s="10" t="inlineStr">
         <is>
           <t>SIGNS_S</t>
         </is>
       </c>
-      <c r="F70" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="inlineStr">
+      <c r="F70" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G70" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
+      <c r="A71" s="10" t="inlineStr">
         <is>
           <t>Return_to_normal_after_period</t>
         </is>
       </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="B71" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="C71" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D71" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E71" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G71" s="6" t="inlineStr">
+      <c r="F71" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G71" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
+      <c r="A72" s="10" t="inlineStr">
         <is>
           <t>Even_sleepless_nights</t>
         </is>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B72" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="C72" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D72" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E72" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="inlineStr">
+      <c r="F72" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G72" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+      <c r="A73" s="10" t="inlineStr">
         <is>
           <t>Insomnia_before_or_during_menstruation</t>
         </is>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B73" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="C73" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D73" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E73" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_S</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="inlineStr">
+      <c r="F73" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G73" s="10" t="inlineStr">
         <is>
           <t>MENSTRUAL</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
+      <c r="A74" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B74" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C74" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C74" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D74" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E74" s="10" t="inlineStr">
         <is>
           <t>Mental_disorder</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F74" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
+      <c r="G74" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
+      <c r="A75" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B75" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C75" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="B75" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C75" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D75" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E75" s="10" t="inlineStr">
         <is>
           <t>Sleep_disorder</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
+      <c r="F75" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G75" s="6" t="inlineStr">
+      <c r="G75" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
+      <c r="A76" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B76" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C76" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="B76" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C76" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D76" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E76" s="10" t="inlineStr">
         <is>
           <t>Isoproterenol</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F76" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr">
+      <c r="G76" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+      <c r="A77" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B77" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C77" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C77" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D77" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E77" s="10" t="inlineStr">
         <is>
           <t>Palpitations</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
+      <c r="F77" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G77" s="6" t="inlineStr">
+      <c r="G77" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
+      <c r="A78" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B78" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C78" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D78" s="6" t="inlineStr">
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C78" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D78" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E78" s="6" t="inlineStr">
+      <c r="E78" s="10" t="inlineStr">
         <is>
           <t>Tumor</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F78" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G78" s="6" t="inlineStr">
+      <c r="G78" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="inlineStr">
+      <c r="A79" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B79" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C79" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D79" s="6" t="inlineStr">
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C79" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D79" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E79" s="6" t="inlineStr">
+      <c r="E79" s="10" t="inlineStr">
         <is>
           <t>Abdominal_discomfort</t>
         </is>
       </c>
-      <c r="F79" s="6" t="inlineStr">
+      <c r="F79" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G79" s="6" t="inlineStr">
+      <c r="G79" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr">
+      <c r="A80" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B80" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C80" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D80" s="6" t="inlineStr">
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C80" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D80" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E80" s="6" t="inlineStr">
+      <c r="E80" s="10" t="inlineStr">
         <is>
           <t>Hyperparathyroidism</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F80" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G80" s="6" t="inlineStr">
+      <c r="G80" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
+      <c r="A81" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B81" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C81" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D81" s="6" t="inlineStr">
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C81" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D81" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E81" s="6" t="inlineStr">
+      <c r="E81" s="10" t="inlineStr">
         <is>
           <t>Ulcer</t>
         </is>
       </c>
-      <c r="F81" s="6" t="inlineStr">
+      <c r="F81" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G81" s="6" t="inlineStr">
+      <c r="G81" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
+      <c r="A82" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B82" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C82" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D82" s="6" t="inlineStr">
+      <c r="B82" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C82" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D82" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E82" s="6" t="inlineStr">
+      <c r="E82" s="10" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F82" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G82" s="6" t="inlineStr">
+      <c r="G82" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
+      <c r="A83" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B83" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C83" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="B83" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C83" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E83" s="10" t="inlineStr">
         <is>
           <t>Peptic_ulcer</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F83" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G83" s="6" t="inlineStr">
+      <c r="G83" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
+      <c r="A84" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B84" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C84" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D84" s="6" t="inlineStr">
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D84" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E84" s="6" t="inlineStr">
+      <c r="E84" s="10" t="inlineStr">
         <is>
           <t>Pain</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F84" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G84" s="6" t="inlineStr">
+      <c r="G84" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="inlineStr">
+      <c r="A85" s="10" t="inlineStr">
         <is>
           <t>SIGNS_</t>
         </is>
       </c>
-      <c r="B85" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C85" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D85" s="6" t="inlineStr">
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D85" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E85" s="6" t="inlineStr">
+      <c r="E85" s="10" t="inlineStr">
         <is>
           <t>Neuritis</t>
         </is>
       </c>
-      <c r="F85" s="6" t="inlineStr">
+      <c r="F85" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="G85" s="6" t="inlineStr">
+      <c r="G85" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="inlineStr">
+      <c r="A86" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B86" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C86" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D86" s="6" t="inlineStr">
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E86" s="6" t="inlineStr">
+      <c r="E86" s="10" t="inlineStr">
         <is>
           <t>Nightmare</t>
         </is>
       </c>
-      <c r="F86" s="6" t="inlineStr">
+      <c r="F86" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="G86" s="6" t="inlineStr">
+      <c r="G86" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="inlineStr">
+      <c r="A87" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B87" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C87" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D87" s="6" t="inlineStr">
+      <c r="B87" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C87" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D87" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E87" s="6" t="inlineStr">
+      <c r="E87" s="10" t="inlineStr">
         <is>
           <t>Anxiety</t>
         </is>
       </c>
-      <c r="F87" s="6" t="inlineStr">
+      <c r="F87" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="G87" s="6" t="inlineStr">
+      <c r="G87" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="inlineStr">
+      <c r="A88" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B88" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C88" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D88" s="6" t="inlineStr">
+      <c r="B88" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C88" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D88" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E88" s="6" t="inlineStr">
+      <c r="E88" s="10" t="inlineStr">
         <is>
           <t>Stimulate</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F88" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="G88" s="6" t="inlineStr">
+      <c r="G88" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="inlineStr">
+      <c r="A89" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B89" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C89" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D89" s="6" t="inlineStr">
+      <c r="B89" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C89" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D89" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E89" s="6" t="inlineStr">
+      <c r="E89" s="10" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="F89" s="6" t="inlineStr">
+      <c r="F89" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="G89" s="6" t="inlineStr">
+      <c r="G89" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="inlineStr">
+      <c r="A90" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B90" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C90" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D90" s="6" t="inlineStr">
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C90" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D90" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E90" s="6" t="inlineStr">
+      <c r="E90" s="10" t="inlineStr">
         <is>
           <t>Hyperactive</t>
         </is>
       </c>
-      <c r="F90" s="6" t="inlineStr">
+      <c r="F90" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="G90" s="6" t="inlineStr">
+      <c r="G90" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="inlineStr">
+      <c r="A91" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_</t>
         </is>
       </c>
-      <c r="B91" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C91" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D91" s="6" t="inlineStr">
+      <c r="B91" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C91" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D91" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E91" s="6" t="inlineStr">
+      <c r="E91" s="10" t="inlineStr">
         <is>
           <t>Excited</t>
         </is>
       </c>
-      <c r="F91" s="6" t="inlineStr">
+      <c r="F91" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="G91" s="6" t="inlineStr">
+      <c r="G91" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr">
+      <c r="A92" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_</t>
         </is>
       </c>
-      <c r="B92" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C92" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D92" s="6" t="inlineStr">
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D92" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="E92" s="6" t="inlineStr">
+      <c r="E92" s="10" t="inlineStr">
         <is>
           <t>Diazepam</t>
         </is>
       </c>
-      <c r="F92" s="6" t="inlineStr">
+      <c r="F92" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="G92" s="6" t="inlineStr">
+      <c r="G92" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="inlineStr">
+      <c r="A93" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_</t>
         </is>
       </c>
-      <c r="B93" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C93" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="inlineStr">
+      <c r="B93" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C93" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D93" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E93" s="6" t="inlineStr">
+      <c r="E93" s="10" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
       </c>
-      <c r="F93" s="6" t="inlineStr">
+      <c r="F93" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="G93" s="6" t="inlineStr">
+      <c r="G93" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
+      <c r="A94" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_</t>
         </is>
       </c>
-      <c r="B94" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C94" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D94" s="6" t="inlineStr">
+      <c r="B94" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C94" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D94" s="10" t="inlineStr">
         <is>
           <t>INSPECTION</t>
         </is>
       </c>
-      <c r="E94" s="6" t="inlineStr">
+      <c r="E94" s="10" t="inlineStr">
         <is>
           <t>Ultrasound</t>
         </is>
       </c>
-      <c r="F94" s="6" t="inlineStr">
+      <c r="F94" s="10" t="inlineStr">
         <is>
           <t>INSPECTION</t>
         </is>
       </c>
-      <c r="G94" s="6" t="inlineStr">
+      <c r="G94" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="inlineStr">
+      <c r="A95" s="10" t="inlineStr">
         <is>
           <t>INSPECTION_</t>
         </is>
       </c>
-      <c r="B95" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C95" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D95" s="6" t="inlineStr">
+      <c r="B95" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C95" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D95" s="10" t="inlineStr">
         <is>
           <t>INSPECTION</t>
         </is>
       </c>
-      <c r="E95" s="6" t="inlineStr">
+      <c r="E95" s="10" t="inlineStr">
         <is>
           <t>Chlamydia_trachomatis</t>
         </is>
       </c>
-      <c r="F95" s="6" t="inlineStr">
+      <c r="F95" s="10" t="inlineStr">
         <is>
           <t>INSPECTION</t>
         </is>
       </c>
-      <c r="G95" s="6" t="inlineStr">
+      <c r="G95" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="inlineStr">
+      <c r="A96" s="10" t="inlineStr">
         <is>
           <t>ICD_10_</t>
         </is>
       </c>
-      <c r="B96" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C96" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D96" s="6" t="inlineStr">
+      <c r="B96" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C96" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D96" s="10" t="inlineStr">
         <is>
           <t>ICD_10</t>
         </is>
       </c>
-      <c r="E96" s="6" t="inlineStr">
+      <c r="E96" s="10" t="inlineStr">
         <is>
           <t>G47_dot_0</t>
         </is>
       </c>
-      <c r="F96" s="6" t="inlineStr">
+      <c r="F96" s="10" t="inlineStr">
         <is>
           <t>ICD_10</t>
         </is>
       </c>
-      <c r="G96" s="6" t="inlineStr">
+      <c r="G96" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
+      <c r="A97" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_</t>
         </is>
       </c>
-      <c r="B97" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C97" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
+      <c r="B97" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C97" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D97" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E97" s="6" t="inlineStr">
+      <c r="E97" s="10" t="inlineStr">
         <is>
           <t>Irritable</t>
         </is>
       </c>
-      <c r="F97" s="6" t="inlineStr">
+      <c r="F97" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="G97" s="6" t="inlineStr">
+      <c r="G97" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="inlineStr">
+      <c r="A98" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_</t>
         </is>
       </c>
-      <c r="B98" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C98" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D98" s="6" t="inlineStr">
+      <c r="B98" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C98" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D98" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E98" s="6" t="inlineStr">
+      <c r="E98" s="10" t="inlineStr">
         <is>
           <t>Depression</t>
         </is>
       </c>
-      <c r="F98" s="6" t="inlineStr">
+      <c r="F98" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="G98" s="6" t="inlineStr">
+      <c r="G98" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="inlineStr">
+      <c r="A99" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION_</t>
         </is>
       </c>
-      <c r="B99" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="C99" s="6" t="inlineStr">
-        <is>
-          <t>MAIN</t>
-        </is>
-      </c>
-      <c r="D99" s="6" t="inlineStr">
+      <c r="B99" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="C99" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D99" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="E99" s="6" t="inlineStr">
+      <c r="E99" s="10" t="inlineStr">
         <is>
           <t>Sub_health</t>
         </is>
       </c>
-      <c r="F99" s="6" t="inlineStr">
+      <c r="F99" s="10" t="inlineStr">
         <is>
           <t>COMPLICATION</t>
         </is>
       </c>
-      <c r="G99" s="6" t="inlineStr">
+      <c r="G99" s="10" t="inlineStr">
         <is>
           <t>NAN</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="inlineStr">
+      <c r="A100" s="10" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
       </c>
-      <c r="B100" s="6" t="inlineStr">
+      <c r="B100" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D100" s="6" t="inlineStr">
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D100" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E100" s="6" t="inlineStr">
+      <c r="E100" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_P</t>
         </is>
       </c>
-      <c r="F100" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G100" s="6" t="inlineStr">
+      <c r="F100" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G100" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="inlineStr">
+      <c r="A101" s="10" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
       </c>
-      <c r="B101" s="6" t="inlineStr">
+      <c r="B101" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D101" s="6" t="inlineStr">
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D101" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
       </c>
-      <c r="E101" s="6" t="inlineStr">
+      <c r="E101" s="10" t="inlineStr">
         <is>
           <t>DEPARTMENT_P</t>
         </is>
       </c>
-      <c r="F101" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G101" s="6" t="inlineStr">
+      <c r="F101" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G101" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="inlineStr">
+      <c r="A102" s="10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="B102" s="6" t="inlineStr">
+      <c r="B102" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D102" s="6" t="inlineStr">
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D102" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="E102" s="6" t="inlineStr">
+      <c r="E102" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_P</t>
         </is>
       </c>
-      <c r="F102" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G102" s="6" t="inlineStr">
+      <c r="F102" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G102" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="inlineStr">
+      <c r="A103" s="10" t="inlineStr">
         <is>
           <t>Middle_aged_and_elderly</t>
         </is>
       </c>
-      <c r="B103" s="6" t="inlineStr">
+      <c r="B103" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="C103" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D103" s="6" t="inlineStr">
+      <c r="C103" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D103" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC</t>
         </is>
       </c>
-      <c r="E103" s="6" t="inlineStr">
+      <c r="E103" s="10" t="inlineStr">
         <is>
           <t>DEMOGRAPHIC_P</t>
         </is>
       </c>
-      <c r="F103" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G103" s="6" t="inlineStr">
+      <c r="F103" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G103" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="inlineStr">
+      <c r="A104" s="10" t="inlineStr">
         <is>
           <t>Proper_exercise</t>
         </is>
       </c>
-      <c r="B104" s="6" t="inlineStr">
+      <c r="B104" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D104" s="6" t="inlineStr">
+      <c r="C104" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D104" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
+      <c r="E104" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_P</t>
         </is>
       </c>
-      <c r="F104" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G104" s="6" t="inlineStr">
+      <c r="F104" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G104" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="inlineStr">
+      <c r="A105" s="10" t="inlineStr">
         <is>
           <t>Remove_mental_barriers</t>
         </is>
       </c>
-      <c r="B105" s="6" t="inlineStr">
+      <c r="B105" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D105" s="6" t="inlineStr">
+      <c r="C105" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D105" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="E105" s="6" t="inlineStr">
+      <c r="E105" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_P</t>
         </is>
       </c>
-      <c r="F105" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G105" s="6" t="inlineStr">
+      <c r="F105" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G105" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="inlineStr">
+      <c r="A106" s="10" t="inlineStr">
         <is>
           <t>Reduce_sleep_time</t>
         </is>
       </c>
-      <c r="B106" s="6" t="inlineStr">
+      <c r="B106" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D106" s="6" t="inlineStr">
+      <c r="C106" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D106" s="10" t="inlineStr">
         <is>
           <t>TREATMENT</t>
         </is>
       </c>
-      <c r="E106" s="6" t="inlineStr">
+      <c r="E106" s="10" t="inlineStr">
         <is>
           <t>TREATMENT_P</t>
         </is>
       </c>
-      <c r="F106" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G106" s="6" t="inlineStr">
+      <c r="F106" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G106" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="inlineStr">
+      <c r="A107" s="10" t="inlineStr">
         <is>
           <t>Light_sleep</t>
         </is>
       </c>
-      <c r="B107" s="6" t="inlineStr">
+      <c r="B107" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D107" s="6" t="inlineStr">
+      <c r="C107" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D107" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E107" s="6" t="inlineStr">
+      <c r="E107" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F107" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G107" s="6" t="inlineStr">
+      <c r="F107" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G107" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="inlineStr">
+      <c r="A108" s="10" t="inlineStr">
         <is>
           <t>Sleep_is_not_real</t>
         </is>
       </c>
-      <c r="B108" s="6" t="inlineStr">
+      <c r="B108" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D108" s="6" t="inlineStr">
+      <c r="C108" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D108" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E108" s="6" t="inlineStr">
+      <c r="E108" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F108" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G108" s="6" t="inlineStr">
+      <c r="F108" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G108" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="inlineStr">
+      <c r="A109" s="10" t="inlineStr">
         <is>
           <t>Very_sleepy_during_the_day</t>
         </is>
       </c>
-      <c r="B109" s="6" t="inlineStr">
+      <c r="B109" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D109" s="6" t="inlineStr">
+      <c r="C109" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D109" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E109" s="6" t="inlineStr">
+      <c r="E109" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F109" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G109" s="6" t="inlineStr">
+      <c r="F109" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G109" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="6" t="inlineStr">
+      <c r="A110" s="10" t="inlineStr">
         <is>
           <t>Difficulty_falling_asleep_at_night</t>
         </is>
       </c>
-      <c r="B110" s="6" t="inlineStr">
+      <c r="B110" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D110" s="6" t="inlineStr">
+      <c r="C110" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D110" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E110" s="6" t="inlineStr">
+      <c r="E110" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F110" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G110" s="6" t="inlineStr">
+      <c r="F110" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G110" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="inlineStr">
+      <c r="A111" s="10" t="inlineStr">
         <is>
           <t>Onset_or_maintenance_sleep_disturbance</t>
         </is>
       </c>
-      <c r="B111" s="6" t="inlineStr">
+      <c r="B111" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D111" s="6" t="inlineStr">
+      <c r="C111" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D111" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E111" s="6" t="inlineStr">
+      <c r="E111" s="10" t="inlineStr">
         <is>
           <t>SIGNS_P</t>
         </is>
       </c>
-      <c r="F111" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G111" s="6" t="inlineStr">
+      <c r="F111" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G111" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="inlineStr">
+      <c r="A112" s="10" t="inlineStr">
         <is>
           <t>Fatigue</t>
         </is>
       </c>
-      <c r="B112" s="6" t="inlineStr">
+      <c r="B112" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D112" s="6" t="inlineStr">
+      <c r="C112" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D112" s="10" t="inlineStr">
         <is>
           <t>SIGNS</t>
         </is>
       </c>
-      <c r="E112" s="6" t="inlineStr">
+      <c r="E112" s="10" t="inlineStr">
         <is>
           <t>SIGNS_P</t>
         </is>
       </c>
-      <c r="F112" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G112" s="6" t="inlineStr">
+      <c r="F112" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G112" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="6" t="inlineStr">
+      <c r="A113" s="10" t="inlineStr">
         <is>
           <t>Excited</t>
         </is>
       </c>
-      <c r="B113" s="6" t="inlineStr">
+      <c r="B113" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="inlineStr">
+      <c r="C113" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D113" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E113" s="6" t="inlineStr">
+      <c r="E113" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F113" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G113" s="6" t="inlineStr">
+      <c r="F113" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G113" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="6" t="inlineStr">
+      <c r="A114" s="10" t="inlineStr">
         <is>
           <t>Poor_sleep_quality</t>
         </is>
       </c>
-      <c r="B114" s="6" t="inlineStr">
+      <c r="B114" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="inlineStr">
+      <c r="C114" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D114" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM</t>
         </is>
       </c>
-      <c r="E114" s="6" t="inlineStr">
+      <c r="E114" s="10" t="inlineStr">
         <is>
           <t>SYMPTOM_P</t>
         </is>
       </c>
-      <c r="F114" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G114" s="6" t="inlineStr">
+      <c r="F114" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G114" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="6" t="inlineStr">
+      <c r="A115" s="10" t="inlineStr">
         <is>
           <t>Entering_menopause</t>
         </is>
       </c>
-      <c r="B115" s="6" t="inlineStr">
+      <c r="B115" s="10" t="inlineStr">
         <is>
           <t>REASON</t>
         </is>
       </c>
-      <c r="C115" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D115" s="6" t="inlineStr">
+      <c r="C115" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D115" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="E115" s="6" t="inlineStr">
+      <c r="E115" s="10" t="inlineStr">
         <is>
           <t>REASON_P</t>
         </is>
       </c>
-      <c r="F115" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G115" s="6" t="inlineStr">
+      <c r="F115" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G115" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="6" t="inlineStr">
+      <c r="A116" s="10" t="inlineStr">
         <is>
           <t>Ovarian_function_degeneration</t>
         </is>
       </c>
-      <c r="B116" s="6" t="inlineStr">
+      <c r="B116" s="10" t="inlineStr">
         <is>
           <t>REASON</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr">
-        <is>
-          <t>NAN</t>
-        </is>
-      </c>
-      <c r="D116" s="6" t="inlineStr">
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D116" s="10" t="inlineStr">
         <is>
           <t>CAUSE</t>
         </is>
       </c>
-      <c r="E116" s="6" t="inlineStr">
+      <c r="E116" s="10" t="inlineStr">
         <is>
           <t>REASON_P</t>
         </is>
       </c>
-      <c r="F116" s="6" t="inlineStr">
-        <is>
-          <t>INTEGRATE</t>
-        </is>
-      </c>
-      <c r="G116" s="6" t="inlineStr">
+      <c r="F116" s="10" t="inlineStr">
+        <is>
+          <t>INTEGRATE</t>
+        </is>
+      </c>
+      <c r="G116" s="10" t="inlineStr">
         <is>
           <t>MENOPAUSE</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="E117" s="6" t="n"/>
+      <c r="A117" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D117" s="10" t="inlineStr">
+        <is>
+          <t>EVALUATE</t>
+        </is>
+      </c>
+      <c r="E117" s="10" t="inlineStr">
+        <is>
+          <t>Depression</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="inlineStr">
+        <is>
+          <t>COMPLICATION</t>
+        </is>
+      </c>
+      <c r="G117" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="F118" s="6" t="n"/>
+      <c r="A118" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B118" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C118" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D118" s="10" t="inlineStr">
+        <is>
+          <t>EVALUATE</t>
+        </is>
+      </c>
+      <c r="E118" s="10" t="inlineStr">
+        <is>
+          <t>Anxiety</t>
+        </is>
+      </c>
+      <c r="F118" s="10" t="inlineStr">
+        <is>
+          <t>SYMPTOM</t>
+        </is>
+      </c>
+      <c r="G118" s="10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B119" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C119" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D119" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E119" s="10" t="inlineStr">
+        <is>
+          <t>Feeling_nervous__anxious__or_anxious</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G119" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="n"/>
+      <c r="A120" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B120" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C120" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D120" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E120" s="10" t="inlineStr">
+        <is>
+          <t>Inability_to_stop_or_control_worry</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G120" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="B121" s="6" t="n"/>
+      <c r="A121" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C121" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D121" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E121" s="10" t="inlineStr">
+        <is>
+          <t>Worrying_too_much_about_all_kinds_of_things</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G121" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="C122" s="6" t="n"/>
+      <c r="A122" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C122" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D122" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E122" s="10" t="inlineStr">
+        <is>
+          <t>Hard_to_relax</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G122" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="E123" s="6" t="n"/>
+      <c r="A123" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B123" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C123" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D123" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E123" s="10" t="inlineStr">
+        <is>
+          <t>Unable_to_sit_still_due_to_restlessness</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G123" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="F124" s="6" t="n"/>
+      <c r="A124" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B124" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C124" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D124" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E124" s="10" t="inlineStr">
+        <is>
+          <t>Become_easily_irritable_or_irritable</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G124" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7_</t>
+        </is>
+      </c>
+      <c r="B125" s="10" t="inlineStr">
+        <is>
+          <t>QUESTIONNAIRE</t>
+        </is>
+      </c>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="D125" s="10" t="inlineStr">
+        <is>
+          <t>INCLUDE</t>
+        </is>
+      </c>
+      <c r="E125" s="10" t="inlineStr">
+        <is>
+          <t>Fear_that_something_terrible_is_about_to_happen</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="inlineStr">
+        <is>
+          <t>GAD_7</t>
+        </is>
+      </c>
+      <c r="G125" s="10" t="inlineStr">
+        <is>
+          <t>QUESTION</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="n"/>
+      <c r="A126" s="10" t="n"/>
     </row>
     <row r="127">
-      <c r="B127" s="6" t="n"/>
+      <c r="B127" s="10" t="n"/>
     </row>
     <row r="128">
-      <c r="C128" s="6" t="n"/>
-    </row>
-    <row r="129">
-      <c r="E129" s="6" t="n"/>
-    </row>
-    <row r="130">
-      <c r="F130" s="6" t="n"/>
+      <c r="C128" s="10" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="6" t="n"/>
+      <c r="A132" s="10" t="n"/>
     </row>
     <row r="133">
-      <c r="B133" s="6" t="n"/>
+      <c r="B133" s="10" t="n"/>
     </row>
     <row r="134">
-      <c r="C134" s="6" t="n"/>
+      <c r="C134" s="10" t="n"/>
     </row>
     <row r="135">
-      <c r="E135" s="6" t="n"/>
+      <c r="E135" s="10" t="n"/>
     </row>
     <row r="136">
-      <c r="F136" s="6" t="n"/>
+      <c r="F136" s="10" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="n"/>
+      <c r="A138" s="10" t="n"/>
     </row>
     <row r="139">
-      <c r="B139" s="6" t="n"/>
+      <c r="B139" s="10" t="n"/>
     </row>
     <row r="140">
-      <c r="C140" s="6" t="n"/>
+      <c r="C140" s="10" t="n"/>
     </row>
     <row r="141">
-      <c r="E141" s="6" t="n"/>
+      <c r="E141" s="10" t="n"/>
     </row>
     <row r="142">
-      <c r="F142" s="6" t="n"/>
+      <c r="F142" s="10" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="n"/>
+      <c r="A144" s="10" t="n"/>
     </row>
     <row r="145">
-      <c r="B145" s="6" t="n"/>
+      <c r="B145" s="10" t="n"/>
     </row>
     <row r="146">
-      <c r="C146" s="6" t="n"/>
+      <c r="C146" s="10" t="n"/>
     </row>
     <row r="147">
-      <c r="E147" s="6" t="n"/>
+      <c r="E147" s="10" t="n"/>
     </row>
     <row r="148">
-      <c r="F148" s="6" t="n"/>
+      <c r="F148" s="10" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="n"/>
+      <c r="A150" s="10" t="n"/>
     </row>
     <row r="151">
-      <c r="B151" s="6" t="n"/>
+      <c r="B151" s="10" t="n"/>
     </row>
     <row r="152">
-      <c r="C152" s="6" t="n"/>
+      <c r="C152" s="10" t="n"/>
     </row>
     <row r="153">
-      <c r="E153" s="6" t="n"/>
+      <c r="E153" s="10" t="n"/>
     </row>
     <row r="154">
-      <c r="F154" s="6" t="n"/>
+      <c r="F154" s="10" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="n"/>
+      <c r="A156" s="10" t="n"/>
     </row>
     <row r="157">
-      <c r="B157" s="6" t="n"/>
+      <c r="B157" s="10" t="n"/>
     </row>
     <row r="158">
-      <c r="C158" s="6" t="n"/>
+      <c r="C158" s="10" t="n"/>
     </row>
     <row r="159">
-      <c r="E159" s="6" t="n"/>
+      <c r="E159" s="10" t="n"/>
     </row>
     <row r="160">
-      <c r="F160" s="6" t="n"/>
+      <c r="F160" s="10" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="n"/>
+      <c r="A162" s="10" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="6" t="n"/>
+      <c r="B163" s="10" t="n"/>
     </row>
     <row r="164">
-      <c r="C164" s="6" t="n"/>
+      <c r="C164" s="10" t="n"/>
     </row>
     <row r="165">
-      <c r="E165" s="6" t="n"/>
+      <c r="E165" s="10" t="n"/>
     </row>
     <row r="166">
-      <c r="F166" s="6" t="n"/>
+      <c r="F166" s="10" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="6" t="n"/>
+      <c r="A168" s="10" t="n"/>
     </row>
     <row r="169">
-      <c r="B169" s="6" t="n"/>
+      <c r="B169" s="10" t="n"/>
     </row>
     <row r="170">
-      <c r="C170" s="6" t="n"/>
+      <c r="C170" s="10" t="n"/>
     </row>
     <row r="171">
-      <c r="E171" s="6" t="n"/>
+      <c r="E171" s="10" t="n"/>
     </row>
     <row r="172">
-      <c r="F172" s="6" t="n"/>
+      <c r="F172" s="10" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="n"/>
+      <c r="A174" s="10" t="n"/>
     </row>
     <row r="175">
-      <c r="B175" s="6" t="n"/>
+      <c r="B175" s="10" t="n"/>
     </row>
     <row r="176">
-      <c r="C176" s="6" t="n"/>
+      <c r="C176" s="10" t="n"/>
     </row>
     <row r="177">
-      <c r="E177" s="6" t="n"/>
+      <c r="E177" s="10" t="n"/>
     </row>
     <row r="178">
-      <c r="F178" s="6" t="n"/>
+      <c r="F178" s="10" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="6" t="n"/>
+      <c r="A180" s="10" t="n"/>
     </row>
     <row r="181">
-      <c r="B181" s="6" t="n"/>
+      <c r="B181" s="10" t="n"/>
     </row>
     <row r="182">
-      <c r="C182" s="6" t="n"/>
+      <c r="C182" s="10" t="n"/>
     </row>
     <row r="183">
-      <c r="E183" s="6" t="n"/>
+      <c r="E183" s="10" t="n"/>
     </row>
     <row r="184">
-      <c r="F184" s="6" t="n"/>
+      <c r="F184" s="10" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="6" t="n"/>
+      <c r="A186" s="10" t="n"/>
     </row>
     <row r="187">
-      <c r="B187" s="6" t="n"/>
+      <c r="B187" s="10" t="n"/>
     </row>
     <row r="188">
-      <c r="C188" s="6" t="n"/>
+      <c r="C188" s="10" t="n"/>
     </row>
     <row r="189">
-      <c r="E189" s="6" t="n"/>
+      <c r="E189" s="10" t="n"/>
     </row>
     <row r="190">
-      <c r="F190" s="6" t="n"/>
+      <c r="F190" s="10" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="6" t="n"/>
+      <c r="A192" s="10" t="n"/>
     </row>
     <row r="193">
-      <c r="B193" s="6" t="n"/>
+      <c r="B193" s="10" t="n"/>
     </row>
     <row r="194">
-      <c r="C194" s="6" t="n"/>
+      <c r="C194" s="10" t="n"/>
     </row>
     <row r="195">
-      <c r="E195" s="6" t="n"/>
+      <c r="E195" s="10" t="n"/>
     </row>
     <row r="196">
-      <c r="F196" s="6" t="n"/>
+      <c r="F196" s="10" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="6" t="n"/>
+      <c r="A198" s="10" t="n"/>
     </row>
     <row r="199">
-      <c r="B199" s="6" t="n"/>
+      <c r="B199" s="10" t="n"/>
     </row>
     <row r="200">
-      <c r="C200" s="6" t="n"/>
+      <c r="C200" s="10" t="n"/>
     </row>
     <row r="201">
-      <c r="E201" s="6" t="n"/>
+      <c r="E201" s="10" t="n"/>
     </row>
     <row r="202">
-      <c r="F202" s="6" t="n"/>
+      <c r="F202" s="10" t="n"/>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="n"/>
+      <c r="A204" s="10" t="n"/>
     </row>
     <row r="205">
-      <c r="B205" s="6" t="n"/>
+      <c r="B205" s="10" t="n"/>
     </row>
     <row r="206">
-      <c r="C206" s="6" t="n"/>
+      <c r="C206" s="10" t="n"/>
     </row>
     <row r="207">
-      <c r="E207" s="6" t="n"/>
+      <c r="E207" s="10" t="n"/>
     </row>
     <row r="208">
-      <c r="F208" s="6" t="n"/>
+      <c r="F208" s="10" t="n"/>
     </row>
     <row r="210">
-      <c r="A210" s="6" t="n"/>
+      <c r="A210" s="10" t="n"/>
     </row>
     <row r="211">
-      <c r="B211" s="6" t="n"/>
+      <c r="B211" s="10" t="n"/>
     </row>
     <row r="212">
-      <c r="C212" s="6" t="n"/>
+      <c r="C212" s="10" t="n"/>
     </row>
     <row r="213">
-      <c r="E213" s="6" t="n"/>
+      <c r="E213" s="10" t="n"/>
     </row>
     <row r="214">
-      <c r="F214" s="6" t="n"/>
+      <c r="F214" s="10" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="6" t="n"/>
+      <c r="A216" s="10" t="n"/>
     </row>
     <row r="217">
-      <c r="B217" s="6" t="n"/>
+      <c r="B217" s="10" t="n"/>
     </row>
     <row r="218">
-      <c r="C218" s="6" t="n"/>
+      <c r="C218" s="10" t="n"/>
     </row>
     <row r="219">
-      <c r="E219" s="6" t="n"/>
+      <c r="E219" s="10" t="n"/>
     </row>
     <row r="220">
-      <c r="F220" s="6" t="n"/>
+      <c r="F220" s="10" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="6" t="n"/>
+      <c r="A222" s="10" t="n"/>
     </row>
     <row r="223">
-      <c r="B223" s="6" t="n"/>
+      <c r="B223" s="10" t="n"/>
     </row>
     <row r="224">
-      <c r="C224" s="6" t="n"/>
+      <c r="C224" s="10" t="n"/>
     </row>
     <row r="225">
-      <c r="E225" s="6" t="n"/>
+      <c r="E225" s="10" t="n"/>
     </row>
     <row r="226">
-      <c r="F226" s="6" t="n"/>
+      <c r="F226" s="10" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="6" t="n"/>
+      <c r="A228" s="10" t="n"/>
     </row>
     <row r="229">
-      <c r="B229" s="6" t="n"/>
+      <c r="B229" s="10" t="n"/>
     </row>
     <row r="230">
-      <c r="C230" s="6" t="n"/>
+      <c r="C230" s="10" t="n"/>
     </row>
     <row r="231">
-      <c r="E231" s="6" t="n"/>
+      <c r="E231" s="10" t="n"/>
     </row>
     <row r="232">
-      <c r="F232" s="6" t="n"/>
+      <c r="F232" s="10" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="6" t="n"/>
+      <c r="A234" s="10" t="n"/>
     </row>
     <row r="235">
-      <c r="B235" s="6" t="n"/>
+      <c r="B235" s="10" t="n"/>
     </row>
     <row r="236">
-      <c r="C236" s="6" t="n"/>
+      <c r="C236" s="10" t="n"/>
     </row>
     <row r="237">
-      <c r="E237" s="6" t="n"/>
+      <c r="E237" s="10" t="n"/>
     </row>
     <row r="238">
-      <c r="F238" s="6" t="n"/>
+      <c r="F238" s="10" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="6" t="n"/>
+      <c r="A240" s="10" t="n"/>
     </row>
     <row r="241">
-      <c r="B241" s="6" t="n"/>
+      <c r="B241" s="10" t="n"/>
     </row>
     <row r="242">
-      <c r="C242" s="6" t="n"/>
+      <c r="C242" s="10" t="n"/>
     </row>
     <row r="243">
-      <c r="E243" s="6" t="n"/>
+      <c r="E243" s="10" t="n"/>
     </row>
     <row r="244">
-      <c r="F244" s="6" t="n"/>
+      <c r="F244" s="10" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="6" t="n"/>
+      <c r="A246" s="10" t="n"/>
     </row>
     <row r="247">
-      <c r="B247" s="6" t="n"/>
+      <c r="B247" s="10" t="n"/>
     </row>
     <row r="248">
-      <c r="C248" s="6" t="n"/>
+      <c r="C248" s="10" t="n"/>
     </row>
     <row r="249">
-      <c r="E249" s="6" t="n"/>
+      <c r="E249" s="10" t="n"/>
     </row>
     <row r="250">
-      <c r="F250" s="6" t="n"/>
+      <c r="F250" s="10" t="n"/>
     </row>
     <row r="252">
-      <c r="A252" s="6" t="n"/>
+      <c r="A252" s="10" t="n"/>
     </row>
     <row r="253">
-      <c r="B253" s="6" t="n"/>
+      <c r="B253" s="10" t="n"/>
     </row>
     <row r="254">
-      <c r="C254" s="6" t="n"/>
+      <c r="C254" s="10" t="n"/>
     </row>
     <row r="255">
-      <c r="E255" s="6" t="n"/>
+      <c r="E255" s="10" t="n"/>
     </row>
     <row r="256">
-      <c r="F256" s="6" t="n"/>
+      <c r="F256" s="10" t="n"/>
     </row>
     <row r="258">
-      <c r="A258" s="6" t="n"/>
+      <c r="A258" s="10" t="n"/>
     </row>
     <row r="259">
-      <c r="B259" s="6" t="n"/>
+      <c r="B259" s="10" t="n"/>
     </row>
     <row r="260">
-      <c r="C260" s="6" t="n"/>
+      <c r="C260" s="10" t="n"/>
     </row>
     <row r="261">
-      <c r="E261" s="6" t="n"/>
+      <c r="E261" s="10" t="n"/>
     </row>
     <row r="262">
-      <c r="F262" s="6" t="n"/>
+      <c r="F262" s="10" t="n"/>
     </row>
     <row r="264">
-      <c r="A264" s="6" t="n"/>
+      <c r="A264" s="10" t="n"/>
     </row>
     <row r="265">
-      <c r="B265" s="6" t="n"/>
+      <c r="B265" s="10" t="n"/>
     </row>
     <row r="266">
-      <c r="C266" s="6" t="n"/>
+      <c r="C266" s="10" t="n"/>
     </row>
     <row r="267">
-      <c r="E267" s="6" t="n"/>
+      <c r="E267" s="10" t="n"/>
     </row>
     <row r="268">
-      <c r="F268" s="6" t="n"/>
+      <c r="F268" s="10" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" s="6" t="n"/>
+      <c r="A270" s="10" t="n"/>
     </row>
     <row r="271">
-      <c r="B271" s="6" t="n"/>
+      <c r="B271" s="10" t="n"/>
     </row>
     <row r="272">
-      <c r="C272" s="6" t="n"/>
+      <c r="C272" s="10" t="n"/>
     </row>
     <row r="273">
-      <c r="E273" s="6" t="n"/>
+      <c r="E273" s="10" t="n"/>
     </row>
     <row r="274">
-      <c r="F274" s="6" t="n"/>
+      <c r="F274" s="10" t="n"/>
     </row>
     <row r="276">
-      <c r="A276" s="6" t="n"/>
+      <c r="A276" s="10" t="n"/>
     </row>
     <row r="277">
-      <c r="B277" s="6" t="n"/>
+      <c r="B277" s="10" t="n"/>
     </row>
     <row r="278">
-      <c r="C278" s="6" t="n"/>
+      <c r="C278" s="10" t="n"/>
     </row>
     <row r="279">
-      <c r="E279" s="6" t="n"/>
+      <c r="E279" s="10" t="n"/>
     </row>
     <row r="280">
-      <c r="F280" s="6" t="n"/>
+      <c r="F280" s="10" t="n"/>
     </row>
     <row r="282">
-      <c r="A282" s="6" t="n"/>
+      <c r="A282" s="10" t="n"/>
     </row>
     <row r="283">
-      <c r="B283" s="6" t="n"/>
+      <c r="B283" s="10" t="n"/>
     </row>
     <row r="284">
-      <c r="C284" s="6" t="n"/>
+      <c r="C284" s="10" t="n"/>
     </row>
     <row r="285">
-      <c r="E285" s="6" t="n"/>
+      <c r="E285" s="10" t="n"/>
     </row>
     <row r="286">
-      <c r="F286" s="6" t="n"/>
+      <c r="F286" s="10" t="n"/>
     </row>
     <row r="288">
-      <c r="A288" s="6" t="n"/>
+      <c r="A288" s="10" t="n"/>
     </row>
     <row r="289">
-      <c r="B289" s="6" t="n"/>
+      <c r="B289" s="10" t="n"/>
     </row>
     <row r="290">
-      <c r="C290" s="6" t="n"/>
+      <c r="C290" s="10" t="n"/>
     </row>
     <row r="291">
-      <c r="E291" s="6" t="n"/>
+      <c r="E291" s="10" t="n"/>
     </row>
     <row r="292">
-      <c r="F292" s="6" t="n"/>
+      <c r="F292" s="10" t="n"/>
     </row>
     <row r="294">
-      <c r="A294" s="6" t="n"/>
+      <c r="A294" s="10" t="n"/>
     </row>
     <row r="295">
-      <c r="B295" s="6" t="n"/>
+      <c r="B295" s="10" t="n"/>
     </row>
     <row r="296">
-      <c r="C296" s="6" t="n"/>
+      <c r="C296" s="10" t="n"/>
     </row>
     <row r="297">
-      <c r="E297" s="6" t="n"/>
+      <c r="E297" s="10" t="n"/>
     </row>
     <row r="298">
-      <c r="F298" s="6" t="n"/>
+      <c r="F298" s="10" t="n"/>
     </row>
     <row r="300">
-      <c r="A300" s="6" t="n"/>
+      <c r="A300" s="10" t="n"/>
     </row>
     <row r="301">
-      <c r="B301" s="6" t="n"/>
+      <c r="B301" s="10" t="n"/>
     </row>
     <row r="302">
-      <c r="C302" s="6" t="n"/>
+      <c r="C302" s="10" t="n"/>
     </row>
     <row r="303">
-      <c r="E303" s="6" t="n"/>
+      <c r="E303" s="10" t="n"/>
     </row>
     <row r="304">
-      <c r="F304" s="6" t="n"/>
+      <c r="F304" s="10" t="n"/>
     </row>
     <row r="306">
-      <c r="A306" s="6" t="n"/>
+      <c r="A306" s="10" t="n"/>
     </row>
     <row r="307">
-      <c r="B307" s="6" t="n"/>
+      <c r="B307" s="10" t="n"/>
     </row>
     <row r="308">
-      <c r="C308" s="6" t="n"/>
+      <c r="C308" s="10" t="n"/>
     </row>
     <row r="309">
-      <c r="E309" s="6" t="n"/>
+      <c r="E309" s="10" t="n"/>
     </row>
     <row r="310">
-      <c r="F310" s="6" t="n"/>
+      <c r="F310" s="10" t="n"/>
     </row>
     <row r="312">
-      <c r="A312" s="6" t="n"/>
+      <c r="A312" s="10" t="n"/>
     </row>
     <row r="313">
-      <c r="B313" s="6" t="n"/>
+      <c r="B313" s="10" t="n"/>
     </row>
     <row r="314">
-      <c r="C314" s="6" t="n"/>
+      <c r="C314" s="10" t="n"/>
     </row>
     <row r="315">
-      <c r="E315" s="6" t="n"/>
+      <c r="E315" s="10" t="n"/>
     </row>
     <row r="316">
-      <c r="F316" s="6" t="n"/>
+      <c r="F316" s="10" t="n"/>
     </row>
     <row r="318">
-      <c r="A318" s="6" t="n"/>
+      <c r="A318" s="10" t="n"/>
     </row>
     <row r="319">
-      <c r="B319" s="6" t="n"/>
+      <c r="B319" s="10" t="n"/>
     </row>
     <row r="320">
-      <c r="C320" s="6" t="n"/>
+      <c r="C320" s="10" t="n"/>
     </row>
     <row r="321">
-      <c r="E321" s="6" t="n"/>
+      <c r="E321" s="10" t="n"/>
     </row>
     <row r="322">
-      <c r="F322" s="6" t="n"/>
+      <c r="F322" s="10" t="n"/>
     </row>
     <row r="324">
-      <c r="A324" s="6" t="n"/>
+      <c r="A324" s="10" t="n"/>
     </row>
     <row r="325">
-      <c r="B325" s="6" t="n"/>
+      <c r="B325" s="10" t="n"/>
     </row>
     <row r="326">
-      <c r="C326" s="6" t="n"/>
+      <c r="C326" s="10" t="n"/>
     </row>
     <row r="327">
-      <c r="E327" s="6" t="n"/>
+      <c r="E327" s="10" t="n"/>
     </row>
     <row r="328">
-      <c r="F328" s="6" t="n"/>
+      <c r="F328" s="10" t="n"/>
     </row>
     <row r="330">
-      <c r="A330" s="6" t="n"/>
+      <c r="A330" s="10" t="n"/>
     </row>
     <row r="331">
-      <c r="B331" s="6" t="n"/>
+      <c r="B331" s="10" t="n"/>
     </row>
     <row r="332">
-      <c r="C332" s="6" t="n"/>
+      <c r="C332" s="10" t="n"/>
     </row>
     <row r="333">
-      <c r="E333" s="6" t="n"/>
+      <c r="E333" s="10" t="n"/>
     </row>
     <row r="334">
-      <c r="F334" s="6" t="n"/>
+      <c r="F334" s="10" t="n"/>
     </row>
     <row r="336">
-      <c r="A336" s="6" t="n"/>
+      <c r="A336" s="10" t="n"/>
     </row>
     <row r="337">
-      <c r="B337" s="6" t="n"/>
+      <c r="B337" s="10" t="n"/>
     </row>
     <row r="338">
-      <c r="C338" s="6" t="n"/>
+      <c r="C338" s="10" t="n"/>
     </row>
     <row r="339">
-      <c r="E339" s="6" t="n"/>
+      <c r="E339" s="10" t="n"/>
     </row>
     <row r="340">
-      <c r="F340" s="6" t="n"/>
+      <c r="F340" s="10" t="n"/>
     </row>
     <row r="342">
-      <c r="A342" s="6" t="n"/>
+      <c r="A342" s="10" t="n"/>
     </row>
     <row r="343">
-      <c r="B343" s="6" t="n"/>
+      <c r="B343" s="10" t="n"/>
     </row>
     <row r="344">
-      <c r="C344" s="6" t="n"/>
+      <c r="C344" s="10" t="n"/>
     </row>
     <row r="345">
-      <c r="E345" s="6" t="n"/>
+      <c r="E345" s="10" t="n"/>
     </row>
     <row r="346">
-      <c r="F346" s="6" t="n"/>
+      <c r="F346" s="10" t="n"/>
     </row>
     <row r="348">
-      <c r="A348" s="6" t="n"/>
+      <c r="A348" s="10" t="n"/>
     </row>
     <row r="349">
-      <c r="B349" s="6" t="n"/>
+      <c r="B349" s="10" t="n"/>
     </row>
     <row r="350">
-      <c r="C350" s="6" t="n"/>
+      <c r="C350" s="10" t="n"/>
     </row>
     <row r="351">
-      <c r="E351" s="6" t="n"/>
+      <c r="E351" s="10" t="n"/>
     </row>
     <row r="352">
-      <c r="F352" s="6" t="n"/>
+      <c r="F352" s="10" t="n"/>
     </row>
     <row r="354">
-      <c r="A354" s="6" t="n"/>
+      <c r="A354" s="10" t="n"/>
     </row>
     <row r="355">
-      <c r="B355" s="6" t="n"/>
+      <c r="B355" s="10" t="n"/>
     </row>
     <row r="356">
-      <c r="C356" s="6" t="n"/>
+      <c r="C356" s="10" t="n"/>
     </row>
     <row r="357">
-      <c r="E357" s="6" t="n"/>
+      <c r="E357" s="10" t="n"/>
     </row>
     <row r="358">
-      <c r="F358" s="6" t="n"/>
+      <c r="F358" s="10" t="n"/>
     </row>
     <row r="360">
-      <c r="A360" s="6" t="n"/>
+      <c r="A360" s="10" t="n"/>
     </row>
     <row r="361">
-      <c r="B361" s="6" t="n"/>
+      <c r="B361" s="10" t="n"/>
     </row>
     <row r="362">
-      <c r="C362" s="6" t="n"/>
+      <c r="C362" s="10" t="n"/>
     </row>
     <row r="363">
-      <c r="E363" s="6" t="n"/>
+      <c r="E363" s="10" t="n"/>
     </row>
     <row r="364">
-      <c r="F364" s="6" t="n"/>
+      <c r="F364" s="10" t="n"/>
     </row>
     <row r="366">
-      <c r="A366" s="6" t="n"/>
+      <c r="A366" s="10" t="n"/>
     </row>
     <row r="367">
-      <c r="B367" s="6" t="n"/>
+      <c r="B367" s="10" t="n"/>
     </row>
     <row r="368">
-      <c r="C368" s="6" t="n"/>
+      <c r="C368" s="10" t="n"/>
     </row>
     <row r="369">
-      <c r="E369" s="6" t="n"/>
+      <c r="E369" s="10" t="n"/>
     </row>
     <row r="370">
-      <c r="F370" s="6" t="n"/>
+      <c r="F370" s="10" t="n"/>
     </row>
     <row r="372">
-      <c r="A372" s="6" t="n"/>
+      <c r="A372" s="10" t="n"/>
     </row>
     <row r="373">
-      <c r="B373" s="6" t="n"/>
+      <c r="B373" s="10" t="n"/>
     </row>
     <row r="374">
-      <c r="C374" s="6" t="n"/>
+      <c r="C374" s="10" t="n"/>
     </row>
     <row r="375">
-      <c r="E375" s="6" t="n"/>
+      <c r="E375" s="10" t="n"/>
     </row>
     <row r="376">
-      <c r="F376" s="6" t="n"/>
+      <c r="F376" s="10" t="n"/>
     </row>
     <row r="378">
-      <c r="A378" s="6" t="n"/>
+      <c r="A378" s="10" t="n"/>
     </row>
     <row r="379">
-      <c r="B379" s="6" t="n"/>
+      <c r="B379" s="10" t="n"/>
     </row>
     <row r="380">
-      <c r="C380" s="6" t="n"/>
+      <c r="C380" s="10" t="n"/>
     </row>
     <row r="381">
-      <c r="E381" s="6" t="n"/>
+      <c r="E381" s="10" t="n"/>
     </row>
     <row r="382">
-      <c r="F382" s="6" t="n"/>
+      <c r="F382" s="10" t="n"/>
     </row>
     <row r="384">
-      <c r="A384" s="6" t="n"/>
+      <c r="A384" s="10" t="n"/>
     </row>
     <row r="385">
-      <c r="B385" s="6" t="n"/>
+      <c r="B385" s="10" t="n"/>
     </row>
     <row r="386">
-      <c r="C386" s="6" t="n"/>
+      <c r="C386" s="10" t="n"/>
     </row>
     <row r="387">
-      <c r="E387" s="6" t="n"/>
+      <c r="E387" s="10" t="n"/>
     </row>
     <row r="388">
-      <c r="F388" s="6" t="n"/>
+      <c r="F388" s="10" t="n"/>
     </row>
     <row r="390">
-      <c r="A390" s="6" t="n"/>
+      <c r="A390" s="10" t="n"/>
     </row>
     <row r="391">
-      <c r="B391" s="6" t="n"/>
+      <c r="B391" s="10" t="n"/>
     </row>
     <row r="392">
-      <c r="C392" s="6" t="n"/>
+      <c r="C392" s="10" t="n"/>
     </row>
     <row r="393">
-      <c r="E393" s="6" t="n"/>
+      <c r="E393" s="10" t="n"/>
     </row>
     <row r="394">
-      <c r="F394" s="6" t="n"/>
+      <c r="F394" s="10" t="n"/>
     </row>
     <row r="396">
-      <c r="A396" s="6" t="n"/>
+      <c r="A396" s="10" t="n"/>
     </row>
     <row r="397">
-      <c r="B397" s="6" t="n"/>
+      <c r="B397" s="10" t="n"/>
     </row>
     <row r="398">
-      <c r="C398" s="6" t="n"/>
+      <c r="C398" s="10" t="n"/>
     </row>
     <row r="399">
-      <c r="E399" s="6" t="n"/>
+      <c r="E399" s="10" t="n"/>
     </row>
     <row r="400">
-      <c r="F400" s="6" t="n"/>
+      <c r="F400" s="10" t="n"/>
     </row>
     <row r="402">
-      <c r="A402" s="6" t="n"/>
+      <c r="A402" s="10" t="n"/>
     </row>
     <row r="403">
-      <c r="B403" s="6" t="n"/>
+      <c r="B403" s="10" t="n"/>
     </row>
     <row r="404">
-      <c r="C404" s="6" t="n"/>
+      <c r="C404" s="10" t="n"/>
     </row>
     <row r="405">
-      <c r="E405" s="6" t="n"/>
+      <c r="E405" s="10" t="n"/>
     </row>
     <row r="406">
-      <c r="F406" s="6" t="n"/>
+      <c r="F406" s="10" t="n"/>
     </row>
     <row r="408">
-      <c r="A408" s="6" t="n"/>
+      <c r="A408" s="10" t="n"/>
     </row>
     <row r="409">
-      <c r="B409" s="6" t="n"/>
+      <c r="B409" s="10" t="n"/>
     </row>
     <row r="410">
-      <c r="C410" s="6" t="n"/>
+      <c r="C410" s="10" t="n"/>
     </row>
     <row r="411">
-      <c r="E411" s="6" t="n"/>
+      <c r="E411" s="10" t="n"/>
     </row>
     <row r="412">
-      <c r="F412" s="6" t="n"/>
+      <c r="F412" s="10" t="n"/>
     </row>
     <row r="414">
-      <c r="A414" s="6" t="n"/>
+      <c r="A414" s="10" t="n"/>
     </row>
     <row r="415">
-      <c r="B415" s="6" t="n"/>
+      <c r="B415" s="10" t="n"/>
     </row>
     <row r="416">
-      <c r="C416" s="6" t="n"/>
+      <c r="C416" s="10" t="n"/>
     </row>
     <row r="417">
-      <c r="E417" s="6" t="n"/>
+      <c r="E417" s="10" t="n"/>
     </row>
     <row r="418">
-      <c r="F418" s="6" t="n"/>
+      <c r="F418" s="10" t="n"/>
     </row>
     <row r="420">
-      <c r="A420" s="6" t="n"/>
+      <c r="A420" s="10" t="n"/>
     </row>
     <row r="421">
-      <c r="B421" s="6" t="n"/>
+      <c r="B421" s="10" t="n"/>
     </row>
     <row r="422">
-      <c r="C422" s="6" t="n"/>
+      <c r="C422" s="10" t="n"/>
     </row>
     <row r="423">
-      <c r="E423" s="6" t="n"/>
+      <c r="E423" s="10" t="n"/>
     </row>
     <row r="424">
-      <c r="F424" s="6" t="n"/>
+      <c r="F424" s="10" t="n"/>
     </row>
     <row r="426">
-      <c r="A426" s="6" t="n"/>
+      <c r="A426" s="10" t="n"/>
     </row>
     <row r="427">
-      <c r="B427" s="6" t="n"/>
+      <c r="B427" s="10" t="n"/>
     </row>
     <row r="428">
-      <c r="C428" s="6" t="n"/>
+      <c r="C428" s="10" t="n"/>
     </row>
     <row r="429">
-      <c r="E429" s="6" t="n"/>
+      <c r="E429" s="10" t="n"/>
     </row>
     <row r="430">
-      <c r="F430" s="6" t="n"/>
+      <c r="F430" s="10" t="n"/>
     </row>
     <row r="432">
-      <c r="A432" s="6" t="n"/>
+      <c r="A432" s="10" t="n"/>
     </row>
     <row r="433">
-      <c r="B433" s="6" t="n"/>
+      <c r="B433" s="10" t="n"/>
     </row>
     <row r="434">
-      <c r="C434" s="6" t="n"/>
+      <c r="C434" s="10" t="n"/>
     </row>
     <row r="435">
-      <c r="E435" s="6" t="n"/>
+      <c r="E435" s="10" t="n"/>
     </row>
     <row r="436">
-      <c r="F436" s="6" t="n"/>
+      <c r="F436" s="10" t="n"/>
     </row>
     <row r="438">
-      <c r="A438" s="6" t="n"/>
+      <c r="A438" s="10" t="n"/>
     </row>
     <row r="439">
-      <c r="B439" s="6" t="n"/>
+      <c r="B439" s="10" t="n"/>
     </row>
     <row r="440">
-      <c r="C440" s="6" t="n"/>
+      <c r="C440" s="10" t="n"/>
     </row>
     <row r="441">
-      <c r="E441" s="6" t="n"/>
+      <c r="E441" s="10" t="n"/>
     </row>
     <row r="442">
-      <c r="F442" s="6" t="n"/>
+      <c r="F442" s="10" t="n"/>
     </row>
     <row r="444">
-      <c r="A444" s="6" t="n"/>
+      <c r="A444" s="10" t="n"/>
     </row>
     <row r="445">
-      <c r="B445" s="6" t="n"/>
+      <c r="B445" s="10" t="n"/>
     </row>
     <row r="446">
-      <c r="C446" s="6" t="n"/>
+      <c r="C446" s="10" t="n"/>
     </row>
     <row r="447">
-      <c r="E447" s="6" t="n"/>
+      <c r="E447" s="10" t="n"/>
     </row>
     <row r="448">
-      <c r="F448" s="6" t="n"/>
+      <c r="F448" s="10" t="n"/>
     </row>
     <row r="450">
-      <c r="A450" s="6" t="n"/>
+      <c r="A450" s="10" t="n"/>
     </row>
     <row r="451">
-      <c r="B451" s="6" t="n"/>
+      <c r="B451" s="10" t="n"/>
     </row>
     <row r="452">
-      <c r="C452" s="6" t="n"/>
+      <c r="C452" s="10" t="n"/>
     </row>
     <row r="453">
-      <c r="E453" s="6" t="n"/>
+      <c r="E453" s="10" t="n"/>
     </row>
     <row r="454">
-      <c r="F454" s="6" t="n"/>
+      <c r="F454" s="10" t="n"/>
     </row>
     <row r="456">
-      <c r="A456" s="6" t="n"/>
+      <c r="A456" s="10" t="n"/>
     </row>
     <row r="457">
-      <c r="B457" s="6" t="n"/>
+      <c r="B457" s="10" t="n"/>
     </row>
     <row r="458">
-      <c r="C458" s="6" t="n"/>
+      <c r="C458" s="10" t="n"/>
     </row>
     <row r="459">
-      <c r="E459" s="6" t="n"/>
+      <c r="E459" s="10" t="n"/>
     </row>
     <row r="460">
-      <c r="F460" s="6" t="n"/>
+      <c r="F460" s="10" t="n"/>
     </row>
     <row r="462">
-      <c r="A462" s="6" t="n"/>
+      <c r="A462" s="10" t="n"/>
     </row>
     <row r="463">
-      <c r="B463" s="6" t="n"/>
+      <c r="B463" s="10" t="n"/>
     </row>
     <row r="464">
-      <c r="C464" s="6" t="n"/>
+      <c r="C464" s="10" t="n"/>
     </row>
     <row r="465">
-      <c r="E465" s="6" t="n"/>
+      <c r="E465" s="10" t="n"/>
     </row>
     <row r="466">
-      <c r="F466" s="6" t="n"/>
+      <c r="F466" s="10" t="n"/>
     </row>
     <row r="468">
-      <c r="A468" s="6" t="n"/>
+      <c r="A468" s="10" t="n"/>
     </row>
     <row r="469">
-      <c r="B469" s="6" t="n"/>
+      <c r="B469" s="10" t="n"/>
     </row>
     <row r="470">
-      <c r="C470" s="6" t="n"/>
+      <c r="C470" s="10" t="n"/>
     </row>
     <row r="471">
-      <c r="E471" s="6" t="n"/>
+      <c r="E471" s="10" t="n"/>
     </row>
     <row r="472">
-      <c r="F472" s="6" t="n"/>
+      <c r="F472" s="10" t="n"/>
     </row>
     <row r="474">
-      <c r="A474" s="6" t="n"/>
+      <c r="A474" s="10" t="n"/>
     </row>
     <row r="475">
-      <c r="B475" s="6" t="n"/>
+      <c r="B475" s="10" t="n"/>
     </row>
     <row r="476">
-      <c r="C476" s="6" t="n"/>
+      <c r="C476" s="10" t="n"/>
     </row>
     <row r="477">
-      <c r="E477" s="6" t="n"/>
+      <c r="E477" s="10" t="n"/>
     </row>
     <row r="478">
-      <c r="F478" s="6" t="n"/>
+      <c r="F478" s="10" t="n"/>
     </row>
     <row r="480">
-      <c r="A480" s="6" t="n"/>
+      <c r="A480" s="10" t="n"/>
     </row>
     <row r="481">
-      <c r="B481" s="6" t="n"/>
+      <c r="B481" s="10" t="n"/>
     </row>
     <row r="482">
-      <c r="C482" s="6" t="n"/>
+      <c r="C482" s="10" t="n"/>
     </row>
     <row r="483">
-      <c r="E483" s="6" t="n"/>
+      <c r="E483" s="10" t="n"/>
     </row>
     <row r="484">
-      <c r="F484" s="6" t="n"/>
+      <c r="F484" s="10" t="n"/>
     </row>
     <row r="486">
-      <c r="A486" s="6" t="n"/>
+      <c r="A486" s="10" t="n"/>
     </row>
     <row r="487">
-      <c r="B487" s="6" t="n"/>
+      <c r="B487" s="10" t="n"/>
     </row>
     <row r="488">
-      <c r="C488" s="6" t="n"/>
+      <c r="C488" s="10" t="n"/>
     </row>
     <row r="489">
-      <c r="E489" s="6" t="n"/>
+      <c r="E489" s="10" t="n"/>
     </row>
     <row r="490">
-      <c r="F490" s="6" t="n"/>
+      <c r="F490" s="10" t="n"/>
     </row>
     <row r="492">
-      <c r="A492" s="6" t="n"/>
+      <c r="A492" s="10" t="n"/>
     </row>
     <row r="493">
-      <c r="B493" s="6" t="n"/>
+      <c r="B493" s="10" t="n"/>
     </row>
     <row r="494">
-      <c r="C494" s="6" t="n"/>
+      <c r="C494" s="10" t="n"/>
     </row>
     <row r="495">
-      <c r="E495" s="6" t="n"/>
+      <c r="E495" s="10" t="n"/>
     </row>
     <row r="496">
-      <c r="F496" s="6" t="n"/>
+      <c r="F496" s="10" t="n"/>
     </row>
     <row r="498">
-      <c r="A498" s="6" t="n"/>
+      <c r="A498" s="10" t="n"/>
     </row>
     <row r="499">
-      <c r="B499" s="6" t="n"/>
+      <c r="B499" s="10" t="n"/>
     </row>
     <row r="500">
-      <c r="C500" s="6" t="n"/>
+      <c r="C500" s="10" t="n"/>
     </row>
     <row r="501">
-      <c r="E501" s="6" t="n"/>
+      <c r="E501" s="10" t="n"/>
     </row>
     <row r="502">
-      <c r="F502" s="6" t="n"/>
+      <c r="F502" s="10" t="n"/>
     </row>
     <row r="504">
-      <c r="A504" s="6" t="n"/>
+      <c r="A504" s="10" t="n"/>
     </row>
     <row r="505">
-      <c r="B505" s="6" t="n"/>
+      <c r="B505" s="10" t="n"/>
     </row>
     <row r="506">
-      <c r="C506" s="6" t="n"/>
+      <c r="C506" s="10" t="n"/>
     </row>
     <row r="507">
-      <c r="E507" s="6" t="n"/>
+      <c r="E507" s="10" t="n"/>
     </row>
     <row r="508">
-      <c r="F508" s="6" t="n"/>
+      <c r="F508" s="10" t="n"/>
     </row>
     <row r="510">
-      <c r="A510" s="6" t="n"/>
+      <c r="A510" s="10" t="n"/>
     </row>
     <row r="511">
-      <c r="B511" s="6" t="n"/>
+      <c r="B511" s="10" t="n"/>
     </row>
     <row r="512">
-      <c r="C512" s="6" t="n"/>
+      <c r="C512" s="10" t="n"/>
     </row>
     <row r="513">
-      <c r="E513" s="6" t="n"/>
+      <c r="E513" s="10" t="n"/>
     </row>
     <row r="514">
-      <c r="F514" s="6" t="n"/>
+      <c r="F514" s="10" t="n"/>
     </row>
     <row r="516">
-      <c r="A516" s="6" t="n"/>
+      <c r="A516" s="10" t="n"/>
     </row>
     <row r="517">
-      <c r="B517" s="6" t="n"/>
+      <c r="B517" s="10" t="n"/>
     </row>
     <row r="518">
-      <c r="C518" s="6" t="n"/>
+      <c r="C518" s="10" t="n"/>
     </row>
     <row r="519">
-      <c r="E519" s="6" t="n"/>
+      <c r="E519" s="10" t="n"/>
     </row>
     <row r="520">
-      <c r="F520" s="6" t="n"/>
+      <c r="F520" s="10" t="n"/>
     </row>
     <row r="522">
-      <c r="A522" s="6" t="n"/>
+      <c r="A522" s="10" t="n"/>
     </row>
     <row r="523">
-      <c r="B523" s="6" t="n"/>
+      <c r="B523" s="10" t="n"/>
     </row>
     <row r="524">
-      <c r="C524" s="6" t="n"/>
+      <c r="C524" s="10" t="n"/>
     </row>
     <row r="525">
-      <c r="E525" s="6" t="n"/>
+      <c r="E525" s="10" t="n"/>
     </row>
     <row r="526">
-      <c r="F526" s="6" t="n"/>
+      <c r="F526" s="10" t="n"/>
     </row>
     <row r="528">
-      <c r="A528" s="6" t="n"/>
+      <c r="A528" s="10" t="n"/>
     </row>
     <row r="529">
-      <c r="B529" s="6" t="n"/>
+      <c r="B529" s="10" t="n"/>
     </row>
     <row r="530">
-      <c r="C530" s="6" t="n"/>
+      <c r="C530" s="10" t="n"/>
     </row>
     <row r="531">
-      <c r="E531" s="6" t="n"/>
+      <c r="E531" s="10" t="n"/>
     </row>
     <row r="532">
-      <c r="F532" s="6" t="n"/>
+      <c r="F532" s="10" t="n"/>
     </row>
     <row r="534">
-      <c r="A534" s="6" t="n"/>
+      <c r="A534" s="10" t="n"/>
     </row>
     <row r="535">
-      <c r="B535" s="6" t="n"/>
+      <c r="B535" s="10" t="n"/>
     </row>
     <row r="536">
-      <c r="C536" s="6" t="n"/>
+      <c r="C536" s="10" t="n"/>
     </row>
     <row r="537">
-      <c r="E537" s="6" t="n"/>
+      <c r="E537" s="10" t="n"/>
     </row>
     <row r="538">
-      <c r="F538" s="6" t="n"/>
+      <c r="F538" s="10" t="n"/>
     </row>
     <row r="540">
-      <c r="A540" s="6" t="n"/>
+      <c r="A540" s="10" t="n"/>
     </row>
     <row r="541">
-      <c r="B541" s="6" t="n"/>
+      <c r="B541" s="10" t="n"/>
     </row>
     <row r="542">
-      <c r="C542" s="6" t="n"/>
+      <c r="C542" s="10" t="n"/>
     </row>
     <row r="543">
-      <c r="E543" s="6" t="n"/>
+      <c r="E543" s="10" t="n"/>
     </row>
     <row r="544">
-      <c r="F544" s="6" t="n"/>
+      <c r="F544" s="10" t="n"/>
     </row>
     <row r="546">
-      <c r="A546" s="6" t="n"/>
+      <c r="A546" s="10" t="n"/>
     </row>
     <row r="547">
-      <c r="B547" s="6" t="n"/>
+      <c r="B547" s="10" t="n"/>
     </row>
     <row r="548">
-      <c r="C548" s="6" t="n"/>
+      <c r="C548" s="10" t="n"/>
     </row>
     <row r="549">
-      <c r="E549" s="6" t="n"/>
+      <c r="E549" s="10" t="n"/>
     </row>
     <row r="550">
-      <c r="F550" s="6" t="n"/>
+      <c r="F550" s="10" t="n"/>
     </row>
     <row r="552">
-      <c r="A552" s="6" t="n"/>
+      <c r="A552" s="10" t="n"/>
     </row>
     <row r="553">
-      <c r="B553" s="6" t="n"/>
+      <c r="B553" s="10" t="n"/>
     </row>
     <row r="554">
-      <c r="C554" s="6" t="n"/>
+      <c r="C554" s="10" t="n"/>
     </row>
     <row r="555">
-      <c r="E555" s="6" t="n"/>
+      <c r="E555" s="10" t="n"/>
     </row>
     <row r="556">
-      <c r="F556" s="6" t="n"/>
+      <c r="F556" s="10" t="n"/>
     </row>
     <row r="558">
-      <c r="A558" s="6" t="n"/>
+      <c r="A558" s="10" t="n"/>
     </row>
     <row r="559">
-      <c r="B559" s="6" t="n"/>
+      <c r="B559" s="10" t="n"/>
     </row>
     <row r="560">
-      <c r="C560" s="6" t="n"/>
+      <c r="C560" s="10" t="n"/>
     </row>
     <row r="561">
-      <c r="E561" s="6" t="n"/>
+      <c r="E561" s="10" t="n"/>
     </row>
     <row r="562">
-      <c r="F562" s="6" t="n"/>
+      <c r="F562" s="10" t="n"/>
     </row>
     <row r="564">
-      <c r="A564" s="6" t="n"/>
+      <c r="A564" s="10" t="n"/>
     </row>
     <row r="565">
-      <c r="B565" s="6" t="n"/>
+      <c r="B565" s="10" t="n"/>
     </row>
     <row r="566">
-      <c r="C566" s="6" t="n"/>
+      <c r="C566" s="10" t="n"/>
     </row>
     <row r="567">
-      <c r="E567" s="6" t="n"/>
+      <c r="E567" s="10" t="n"/>
     </row>
     <row r="568">
-      <c r="F568" s="6" t="n"/>
+      <c r="F568" s="10" t="n"/>
     </row>
     <row r="570">
-      <c r="A570" s="6" t="n"/>
+      <c r="A570" s="10" t="n"/>
     </row>
     <row r="571">
-      <c r="B571" s="6" t="n"/>
+      <c r="B571" s="10" t="n"/>
     </row>
     <row r="572">
-      <c r="C572" s="6" t="n"/>
+      <c r="C572" s="10" t="n"/>
     </row>
     <row r="573">
-      <c r="E573" s="6" t="n"/>
+      <c r="E573" s="10" t="n"/>
     </row>
     <row r="574">
-      <c r="F574" s="6" t="n"/>
+      <c r="F574" s="10" t="n"/>
     </row>
     <row r="576">
-      <c r="A576" s="6" t="n"/>
+      <c r="A576" s="10" t="n"/>
     </row>
     <row r="577">
-      <c r="B577" s="6" t="n"/>
+      <c r="B577" s="10" t="n"/>
     </row>
     <row r="578">
-      <c r="C578" s="6" t="n"/>
+      <c r="C578" s="10" t="n"/>
     </row>
     <row r="579">
-      <c r="E579" s="6" t="n"/>
+      <c r="E579" s="10" t="n"/>
     </row>
     <row r="580">
-      <c r="F580" s="6" t="n"/>
+      <c r="F580" s="10" t="n"/>
     </row>
     <row r="582">
-      <c r="A582" s="6" t="n"/>
+      <c r="A582" s="10" t="n"/>
     </row>
     <row r="583">
-      <c r="B583" s="6" t="n"/>
+      <c r="B583" s="10" t="n"/>
     </row>
     <row r="584">
-      <c r="C584" s="6" t="n"/>
+      <c r="C584" s="10" t="n"/>
     </row>
     <row r="585">
-      <c r="E585" s="6" t="n"/>
+      <c r="E585" s="10" t="n"/>
     </row>
     <row r="586">
-      <c r="F586" s="6" t="n"/>
+      <c r="F586" s="10" t="n"/>
     </row>
     <row r="588">
-      <c r="A588" s="6" t="n"/>
+      <c r="A588" s="10" t="n"/>
     </row>
     <row r="589">
-      <c r="B589" s="6" t="n"/>
+      <c r="B589" s="10" t="n"/>
     </row>
     <row r="590">
-      <c r="C590" s="6" t="n"/>
+      <c r="C590" s="10" t="n"/>
     </row>
     <row r="591">
-      <c r="E591" s="6" t="n"/>
+      <c r="E591" s="10" t="n"/>
     </row>
     <row r="592">
-      <c r="F592" s="6" t="n"/>
+      <c r="F592" s="10" t="n"/>
     </row>
     <row r="594">
-      <c r="A594" s="6" t="n"/>
+      <c r="A594" s="10" t="n"/>
     </row>
     <row r="595">
-      <c r="B595" s="6" t="n"/>
+      <c r="B595" s="10" t="n"/>
     </row>
     <row r="596">
-      <c r="C596" s="6" t="n"/>
+      <c r="C596" s="10" t="n"/>
     </row>
     <row r="597">
-      <c r="E597" s="6" t="n"/>
+      <c r="E597" s="10" t="n"/>
     </row>
     <row r="598">
-      <c r="F598" s="6" t="n"/>
+      <c r="F598" s="10" t="n"/>
     </row>
     <row r="600">
-      <c r="A600" s="6" t="n"/>
+      <c r="A600" s="10" t="n"/>
     </row>
     <row r="601">
-      <c r="B601" s="6" t="n"/>
+      <c r="B601" s="10" t="n"/>
     </row>
     <row r="602">
-      <c r="C602" s="6" t="n"/>
+      <c r="C602" s="10" t="n"/>
     </row>
     <row r="603">
-      <c r="E603" s="6" t="n"/>
+      <c r="E603" s="10" t="n"/>
     </row>
     <row r="604">
-      <c r="F604" s="6" t="n"/>
+      <c r="F604" s="10" t="n"/>
     </row>
     <row r="606">
-      <c r="A606" s="6" t="n"/>
+      <c r="A606" s="10" t="n"/>
     </row>
     <row r="607">
-      <c r="B607" s="6" t="n"/>
+      <c r="B607" s="10" t="n"/>
     </row>
     <row r="608">
-      <c r="C608" s="6" t="n"/>
+      <c r="C608" s="10" t="n"/>
     </row>
     <row r="609">
-      <c r="E609" s="6" t="n"/>
+      <c r="E609" s="10" t="n"/>
     </row>
     <row r="610">
-      <c r="F610" s="6" t="n"/>
+      <c r="F610" s="10" t="n"/>
     </row>
     <row r="612">
-      <c r="A612" s="6" t="n"/>
+      <c r="A612" s="10" t="n"/>
     </row>
     <row r="613">
-      <c r="B613" s="6" t="n"/>
+      <c r="B613" s="10" t="n"/>
     </row>
     <row r="614">
-      <c r="C614" s="6" t="n"/>
+      <c r="C614" s="10" t="n"/>
     </row>
     <row r="615">
-      <c r="E615" s="6" t="n"/>
+      <c r="E615" s="10" t="n"/>
     </row>
     <row r="616">
-      <c r="F616" s="6" t="n"/>
+      <c r="F616" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
